--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -58,10 +58,16 @@
     <t>|| 14:01-EDT | 04/12/2023 ||</t>
   </si>
   <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>|| 16:41-EDT | 04/12/2023 ||</t>
+  </si>
+  <si>
     <t>DAWNETTA</t>
-  </si>
-  <si>
-    <t>|| 12:10-EDT | 04/12/2023 ||</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
         <v>343</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -477,16 +483,16 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -49,19 +49,16 @@
     <t>12</t>
   </si>
   <si>
-    <t>CHRIS</t>
+    <t>Dawnetta</t>
+  </si>
+  <si>
+    <t>ADAM</t>
+  </si>
+  <si>
+    <t>|| 17:32-EDT | 04/12/2023 ||</t>
   </si>
   <si>
     <t>ANTHONY</t>
-  </si>
-  <si>
-    <t>|| 14:01-EDT | 04/12/2023 ||</t>
-  </si>
-  <si>
-    <t>PAM</t>
-  </si>
-  <si>
-    <t>ADAM</t>
   </si>
   <si>
     <t>|| 16:41-EDT | 04/12/2023 ||</t>
@@ -468,7 +465,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="C2">
         <v>44</v>
@@ -486,13 +483,13 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -46,19 +46,16 @@
     <t>Assigner</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Dawnetta</t>
+    <t>MIKE</t>
   </si>
   <si>
     <t>ADAM</t>
   </si>
   <si>
-    <t>|| 17:32-EDT | 04/12/2023 ||</t>
-  </si>
-  <si>
-    <t>ANTHONY</t>
+    <t>|| 08:40-EDT | 04/13/2023 ||</t>
+  </si>
+  <si>
+    <t>PAM</t>
   </si>
   <si>
     <t>|| 16:41-EDT | 04/12/2023 ||</t>
@@ -461,35 +458,35 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2">
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C2">
         <v>44</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -46,22 +46,22 @@
     <t>Assigner</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>CHRIS</t>
+  </si>
+  <si>
     <t>MIKE</t>
   </si>
   <si>
-    <t>ADAM</t>
-  </si>
-  <si>
-    <t>|| 08:40-EDT | 04/13/2023 ||</t>
+    <t>|| 09:45-EDT | 04/14/2023 ||</t>
   </si>
   <si>
     <t>PAM</t>
   </si>
   <si>
-    <t>|| 16:41-EDT | 04/12/2023 ||</t>
-  </si>
-  <si>
-    <t>DAWNETTA</t>
+    <t>|| 19:00-EDT | 04/13/2023 ||</t>
   </si>
 </sst>
 </file>
@@ -458,35 +458,35 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>361</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>351</v>
-      </c>
-      <c r="C2">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
